--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2470382.97879782</v>
+        <v>-2472955.846177168</v>
       </c>
     </row>
     <row r="7">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340.7629559825168</v>
+        <v>340.7629559825167</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>312.7121559397191</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.797788697613562</v>
       </c>
       <c r="F11" t="n">
-        <v>364.9051600607476</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>369.899849162663</v>
+        <v>369.8998491626629</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>262.3559190752191</v>
       </c>
       <c r="I11" t="n">
-        <v>36.19272089611903</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.84242302828653</v>
+        <v>88.8424230282865</v>
       </c>
       <c r="T11" t="n">
         <v>166.10137218864</v>
@@ -1427,16 +1427,16 @@
         <v>209.100207013152</v>
       </c>
       <c r="V11" t="n">
-        <v>220.7649526943257</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>307.2700830364492</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>344.2670529750897</v>
       </c>
     </row>
     <row r="12">
@@ -1458,13 +1458,13 @@
         <v>115.6741947744371</v>
       </c>
       <c r="F12" t="n">
-        <v>103.0983267124201</v>
+        <v>103.09832671242</v>
       </c>
       <c r="G12" t="n">
-        <v>93.53634816607142</v>
+        <v>93.53634816607139</v>
       </c>
       <c r="H12" t="n">
-        <v>52.52992758089131</v>
+        <v>52.52992758089125</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>95.60412821233538</v>
+        <v>95.60412821233535</v>
       </c>
       <c r="T12" t="n">
         <v>150.7923326297999</v>
@@ -1506,13 +1506,13 @@
         <v>183.8496882871047</v>
       </c>
       <c r="V12" t="n">
-        <v>190.8297014684615</v>
+        <v>190.8297014684614</v>
       </c>
       <c r="W12" t="n">
         <v>209.7240974799558</v>
       </c>
       <c r="X12" t="n">
-        <v>163.8020995225137</v>
+        <v>163.8020995225136</v>
       </c>
       <c r="Y12" t="n">
         <v>163.7118100963405</v>
@@ -1534,19 +1534,19 @@
         <v>106.6445873372485</v>
       </c>
       <c r="E13" t="n">
-        <v>104.4630769656054</v>
+        <v>104.4630769656053</v>
       </c>
       <c r="F13" t="n">
         <v>103.4501623419674</v>
       </c>
       <c r="G13" t="n">
-        <v>124.480615429968</v>
+        <v>124.4806154299679</v>
       </c>
       <c r="H13" t="n">
         <v>106.5689256802814</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>7.198467418543236</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.1019655846747</v>
+        <v>66.10196558467467</v>
       </c>
       <c r="S13" t="n">
-        <v>155.216805078652</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>179.3969330533388</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>154.2760120399904</v>
+        <v>244.2641721347528</v>
       </c>
       <c r="V13" t="n">
         <v>210.1667576428642</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>244.5521126556272</v>
       </c>
       <c r="X13" t="n">
-        <v>183.7387697080733</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>176.6137676711309</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.7629559825168</v>
+        <v>340.7629559825169</v>
       </c>
       <c r="C14" t="n">
-        <v>323.3020060900437</v>
+        <v>323.3020060900438</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>312.7121559397193</v>
       </c>
       <c r="E14" t="n">
-        <v>339.959484391298</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>364.9051600607476</v>
+        <v>364.9051600607477</v>
       </c>
       <c r="G14" t="n">
-        <v>368.9508399724896</v>
+        <v>368.9508399724897</v>
       </c>
       <c r="H14" t="n">
-        <v>252.6368787063566</v>
+        <v>252.6368787063567</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.21687610721202</v>
+        <v>67.21687610721213</v>
       </c>
       <c r="T14" t="n">
-        <v>161.9470844586563</v>
+        <v>161.9470844586564</v>
       </c>
       <c r="U14" t="n">
         <v>209.0242862779382</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>285.7813727891712</v>
       </c>
       <c r="W14" t="n">
-        <v>307.2700830364492</v>
+        <v>307.2700830364493</v>
       </c>
       <c r="X14" t="n">
-        <v>146.260060066419</v>
+        <v>231.993068703916</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.2670529750898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883145</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.5557487471534</v>
+        <v>137.8610945009736</v>
       </c>
       <c r="C16" t="n">
-        <v>125.275935417664</v>
+        <v>125.2759354176641</v>
       </c>
       <c r="D16" t="n">
-        <v>106.6445873372485</v>
+        <v>106.6445873372486</v>
       </c>
       <c r="E16" t="n">
         <v>104.4630769656054</v>
       </c>
       <c r="F16" t="n">
-        <v>103.4501623419674</v>
+        <v>103.4501623419675</v>
       </c>
       <c r="G16" t="n">
-        <v>124.0549225780644</v>
+        <v>124.0549225780645</v>
       </c>
       <c r="H16" t="n">
         <v>102.784129233357</v>
       </c>
       <c r="I16" t="n">
-        <v>54.38153472887428</v>
+        <v>54.38153472887439</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.96126698908351</v>
+        <v>46.96126698908362</v>
       </c>
       <c r="S16" t="n">
-        <v>147.7981396504781</v>
+        <v>147.7981396504782</v>
       </c>
       <c r="T16" t="n">
-        <v>177.5780635952054</v>
+        <v>177.5780635952055</v>
       </c>
       <c r="U16" t="n">
-        <v>244.2409525246491</v>
+        <v>124.9356067708271</v>
       </c>
       <c r="V16" t="n">
-        <v>210.1667576428642</v>
+        <v>210.1667576428643</v>
       </c>
       <c r="W16" t="n">
-        <v>244.5521126556272</v>
+        <v>244.5521126556273</v>
       </c>
       <c r="X16" t="n">
-        <v>183.7387697080733</v>
+        <v>183.7387697080734</v>
       </c>
       <c r="Y16" t="n">
-        <v>176.613767671131</v>
+        <v>176.6137676711311</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429038</v>
       </c>
       <c r="D17" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U17" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V17" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W17" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X17" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V19" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W19" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D20" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U20" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V20" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W20" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W22" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D23" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U23" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V23" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W23" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247726</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>327.0200071163395</v>
+        <v>327.0200071163393</v>
       </c>
       <c r="C26" t="n">
-        <v>309.5590572238664</v>
+        <v>309.5590572238663</v>
       </c>
       <c r="D26" t="n">
-        <v>298.9692070735418</v>
+        <v>298.9692070735417</v>
       </c>
       <c r="E26" t="n">
-        <v>326.2165355251207</v>
+        <v>326.2165355251205</v>
       </c>
       <c r="F26" t="n">
-        <v>351.1622111945703</v>
+        <v>351.1622111945702</v>
       </c>
       <c r="G26" t="n">
-        <v>355.2078911063123</v>
+        <v>355.2078911063122</v>
       </c>
       <c r="H26" t="n">
-        <v>238.8939298401793</v>
+        <v>238.8939298401792</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.47392724103469</v>
+        <v>53.47392724103461</v>
       </c>
       <c r="T26" t="n">
-        <v>148.204135592479</v>
+        <v>148.2041355924789</v>
       </c>
       <c r="U26" t="n">
-        <v>195.2813374117608</v>
+        <v>195.2813374117607</v>
       </c>
       <c r="V26" t="n">
-        <v>272.0384239229938</v>
+        <v>272.0384239229937</v>
       </c>
       <c r="W26" t="n">
-        <v>293.5271341702719</v>
+        <v>293.5271341702718</v>
       </c>
       <c r="X26" t="n">
-        <v>314.0172661313279</v>
+        <v>314.0172661313278</v>
       </c>
       <c r="Y26" t="n">
-        <v>330.5241041089125</v>
+        <v>330.5241041089124</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883156</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.1181456347962</v>
+        <v>124.1181456347961</v>
       </c>
       <c r="C28" t="n">
-        <v>111.5329865514867</v>
+        <v>111.5329865514866</v>
       </c>
       <c r="D28" t="n">
-        <v>92.90163847107121</v>
+        <v>92.90163847107112</v>
       </c>
       <c r="E28" t="n">
-        <v>90.72012809942802</v>
+        <v>90.72012809942794</v>
       </c>
       <c r="F28" t="n">
-        <v>89.7072134757901</v>
+        <v>89.70721347579001</v>
       </c>
       <c r="G28" t="n">
-        <v>110.3119737118871</v>
+        <v>110.311973711887</v>
       </c>
       <c r="H28" t="n">
-        <v>89.04118036717963</v>
+        <v>89.04118036717955</v>
       </c>
       <c r="I28" t="n">
-        <v>40.63858586269695</v>
+        <v>40.63858586269686</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>33.21831812290618</v>
+        <v>33.2183181229061</v>
       </c>
       <c r="S28" t="n">
         <v>134.0551907843007</v>
@@ -2767,16 +2767,16 @@
         <v>163.835114729028</v>
       </c>
       <c r="U28" t="n">
-        <v>230.4980036584717</v>
+        <v>230.4980036584716</v>
       </c>
       <c r="V28" t="n">
-        <v>196.4238087766869</v>
+        <v>196.4238087766868</v>
       </c>
       <c r="W28" t="n">
-        <v>230.8091637894499</v>
+        <v>230.8091637894498</v>
       </c>
       <c r="X28" t="n">
-        <v>169.995820841896</v>
+        <v>169.9958208418959</v>
       </c>
       <c r="Y28" t="n">
         <v>162.8708188049536</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>327.0200071163395</v>
+        <v>327.0200071163393</v>
       </c>
       <c r="C29" t="n">
-        <v>309.5590572238664</v>
+        <v>309.5590572238663</v>
       </c>
       <c r="D29" t="n">
-        <v>298.9692070735418</v>
+        <v>298.9692070735417</v>
       </c>
       <c r="E29" t="n">
-        <v>326.2165355251207</v>
+        <v>326.2165355251205</v>
       </c>
       <c r="F29" t="n">
-        <v>351.1622111945703</v>
+        <v>351.1622111945701</v>
       </c>
       <c r="G29" t="n">
-        <v>355.2078911063123</v>
+        <v>355.2078911063122</v>
       </c>
       <c r="H29" t="n">
-        <v>238.8939298401793</v>
+        <v>238.8939298401792</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.47392724103469</v>
+        <v>53.47392724103454</v>
       </c>
       <c r="T29" t="n">
-        <v>148.204135592479</v>
+        <v>148.2041355924788</v>
       </c>
       <c r="U29" t="n">
-        <v>195.2813374117608</v>
+        <v>195.2813374117607</v>
       </c>
       <c r="V29" t="n">
-        <v>272.0384239229938</v>
+        <v>272.0384239229936</v>
       </c>
       <c r="W29" t="n">
-        <v>293.5271341702719</v>
+        <v>293.5271341702717</v>
       </c>
       <c r="X29" t="n">
-        <v>314.0172661313279</v>
+        <v>314.0172661313277</v>
       </c>
       <c r="Y29" t="n">
-        <v>330.5241041089125</v>
+        <v>330.5241041089123</v>
       </c>
     </row>
     <row r="30">
@@ -2883,7 +2883,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
         <v>89.59687541851115</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.1181456347962</v>
+        <v>124.118145634796</v>
       </c>
       <c r="C31" t="n">
-        <v>111.5329865514867</v>
+        <v>111.5329865514865</v>
       </c>
       <c r="D31" t="n">
-        <v>92.90163847107121</v>
+        <v>92.90163847107107</v>
       </c>
       <c r="E31" t="n">
-        <v>90.72012809942802</v>
+        <v>90.72012809942788</v>
       </c>
       <c r="F31" t="n">
-        <v>89.7072134757901</v>
+        <v>89.70721347578996</v>
       </c>
       <c r="G31" t="n">
-        <v>110.3119737118871</v>
+        <v>110.3119737118869</v>
       </c>
       <c r="H31" t="n">
-        <v>89.04118036717963</v>
+        <v>89.04118036717949</v>
       </c>
       <c r="I31" t="n">
-        <v>40.63858586269695</v>
+        <v>40.63858586269681</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.21831812290618</v>
+        <v>33.21831812290604</v>
       </c>
       <c r="S31" t="n">
-        <v>134.0551907843007</v>
+        <v>134.0551907843006</v>
       </c>
       <c r="T31" t="n">
-        <v>163.835114729028</v>
+        <v>163.8351147290279</v>
       </c>
       <c r="U31" t="n">
-        <v>230.4980036584717</v>
+        <v>230.4980036584716</v>
       </c>
       <c r="V31" t="n">
-        <v>196.4238087766869</v>
+        <v>196.4238087766867</v>
       </c>
       <c r="W31" t="n">
-        <v>230.8091637894499</v>
+        <v>230.8091637894497</v>
       </c>
       <c r="X31" t="n">
-        <v>169.995820841896</v>
+        <v>169.9958208418959</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.8708188049536</v>
+        <v>162.8708188049535</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>327.0200071163395</v>
+        <v>327.0200071163393</v>
       </c>
       <c r="C32" t="n">
-        <v>309.5590572238665</v>
+        <v>309.5590572238663</v>
       </c>
       <c r="D32" t="n">
-        <v>298.9692070735419</v>
+        <v>298.9692070735417</v>
       </c>
       <c r="E32" t="n">
-        <v>326.2165355251207</v>
+        <v>326.2165355251205</v>
       </c>
       <c r="F32" t="n">
-        <v>351.1622111945704</v>
+        <v>351.1622111945702</v>
       </c>
       <c r="G32" t="n">
-        <v>355.2078911063124</v>
+        <v>355.2078911063122</v>
       </c>
       <c r="H32" t="n">
-        <v>238.8939298401794</v>
+        <v>238.8939298401792</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>53.47392724103477</v>
+        <v>53.47392724103459</v>
       </c>
       <c r="T32" t="n">
-        <v>148.2041355924791</v>
+        <v>148.2041355924789</v>
       </c>
       <c r="U32" t="n">
-        <v>195.2813374117609</v>
+        <v>195.2813374117607</v>
       </c>
       <c r="V32" t="n">
-        <v>272.0384239229938</v>
+        <v>272.0384239229937</v>
       </c>
       <c r="W32" t="n">
-        <v>293.5271341702719</v>
+        <v>293.5271341702718</v>
       </c>
       <c r="X32" t="n">
-        <v>314.017266131328</v>
+        <v>314.0172661313278</v>
       </c>
       <c r="Y32" t="n">
-        <v>330.5241041089125</v>
+        <v>330.5241041089124</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851098</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247742</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>124.1181456347962</v>
+        <v>124.1181456347961</v>
       </c>
       <c r="C34" t="n">
-        <v>111.5329865514868</v>
+        <v>111.5329865514866</v>
       </c>
       <c r="D34" t="n">
-        <v>92.90163847107129</v>
+        <v>92.90163847107112</v>
       </c>
       <c r="E34" t="n">
-        <v>90.72012809942811</v>
+        <v>90.72012809942794</v>
       </c>
       <c r="F34" t="n">
-        <v>89.70721347579018</v>
+        <v>89.70721347579001</v>
       </c>
       <c r="G34" t="n">
-        <v>110.3119737118872</v>
+        <v>110.311973711887</v>
       </c>
       <c r="H34" t="n">
-        <v>89.04118036717972</v>
+        <v>89.04118036717955</v>
       </c>
       <c r="I34" t="n">
-        <v>40.63858586269703</v>
+        <v>40.63858586269686</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>33.21831812290627</v>
+        <v>33.2183181229061</v>
       </c>
       <c r="S34" t="n">
-        <v>134.0551907843008</v>
+        <v>134.0551907843007</v>
       </c>
       <c r="T34" t="n">
-        <v>163.8351147290281</v>
+        <v>163.835114729028</v>
       </c>
       <c r="U34" t="n">
-        <v>230.4980036584718</v>
+        <v>230.4980036584716</v>
       </c>
       <c r="V34" t="n">
-        <v>196.4238087766869</v>
+        <v>196.4238087766868</v>
       </c>
       <c r="W34" t="n">
-        <v>230.8091637894499</v>
+        <v>230.8091637894498</v>
       </c>
       <c r="X34" t="n">
-        <v>169.9958208418961</v>
+        <v>169.9958208418959</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.8708188049537</v>
+        <v>162.8708188049536</v>
       </c>
     </row>
     <row r="35">
@@ -3357,7 +3357,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657083</v>
       </c>
       <c r="H36" t="n">
         <v>89.59687541851115</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="40">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007097</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383243</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052297</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010749</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846431</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482638</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092336</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621592</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333703</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383226</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.5621008705228</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010732</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846414</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482621</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092319</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621575</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333686</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.1547825174162</v>
+        <v>1007.779007523159</v>
       </c>
       <c r="C11" t="n">
-        <v>822.1547825174162</v>
+        <v>1007.779007523159</v>
       </c>
       <c r="D11" t="n">
-        <v>822.1547825174162</v>
+        <v>691.9081429375838</v>
       </c>
       <c r="E11" t="n">
-        <v>822.1547825174162</v>
+        <v>682.011386677368</v>
       </c>
       <c r="F11" t="n">
-        <v>453.5637117489841</v>
+        <v>682.011386677368</v>
       </c>
       <c r="G11" t="n">
-        <v>79.92750047356694</v>
+        <v>308.3751754019509</v>
       </c>
       <c r="H11" t="n">
-        <v>79.92750047356694</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I11" t="n">
         <v>43.36919653809316</v>
       </c>
       <c r="J11" t="n">
-        <v>152.507818430191</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K11" t="n">
-        <v>366.8168396232736</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L11" t="n">
-        <v>669.5878927711894</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.148464578733</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.286540135171</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.960612545601</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P11" t="n">
         <v>2021.630958172452</v>
@@ -5072,19 +5072,19 @@
         <v>1910.940841837056</v>
       </c>
       <c r="U11" t="n">
-        <v>1699.72851152074</v>
+        <v>1699.728511520741</v>
       </c>
       <c r="V11" t="n">
-        <v>1476.733609809301</v>
+        <v>1699.728511520741</v>
       </c>
       <c r="W11" t="n">
-        <v>1166.359788560362</v>
+        <v>1699.728511520741</v>
       </c>
       <c r="X11" t="n">
-        <v>1166.359788560362</v>
+        <v>1699.728511520741</v>
       </c>
       <c r="Y11" t="n">
-        <v>1166.359788560362</v>
+        <v>1351.984013566105</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>650.4910050480394</v>
+        <v>650.4910050480391</v>
       </c>
       <c r="C12" t="n">
-        <v>518.432809788088</v>
+        <v>518.4328097880878</v>
       </c>
       <c r="D12" t="n">
-        <v>411.8932341480123</v>
+        <v>411.8932341480121</v>
       </c>
       <c r="E12" t="n">
-        <v>295.0506131637324</v>
+        <v>295.0506131637322</v>
       </c>
       <c r="F12" t="n">
-        <v>190.9108892117929</v>
+        <v>190.9108892117928</v>
       </c>
       <c r="G12" t="n">
-        <v>96.42972944808439</v>
+        <v>96.42972944808433</v>
       </c>
       <c r="H12" t="n">
         <v>43.36919653809316</v>
       </c>
       <c r="I12" t="n">
-        <v>48.98390045898904</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J12" t="n">
-        <v>136.7194458506735</v>
+        <v>131.1047419297777</v>
       </c>
       <c r="K12" t="n">
-        <v>335.3618894196568</v>
+        <v>288.1960086746067</v>
       </c>
       <c r="L12" t="n">
-        <v>634.4642018037989</v>
+        <v>587.2983210587489</v>
       </c>
       <c r="M12" t="n">
-        <v>954.3710972723088</v>
+        <v>948.756393351413</v>
       </c>
       <c r="N12" t="n">
-        <v>1338.704798091095</v>
+        <v>1291.538917346045</v>
       </c>
       <c r="O12" t="n">
-        <v>1638.343091514835</v>
+        <v>1624.449340424766</v>
       </c>
       <c r="P12" t="n">
         <v>1852.851507075736</v>
@@ -5145,25 +5145,25 @@
         <v>1946.325505720176</v>
       </c>
       <c r="S12" t="n">
-        <v>1849.75567924307</v>
+        <v>1849.755679243069</v>
       </c>
       <c r="T12" t="n">
         <v>1697.440191738221</v>
       </c>
       <c r="U12" t="n">
-        <v>1511.733435892661</v>
+        <v>1511.73343589266</v>
       </c>
       <c r="V12" t="n">
-        <v>1318.976161682094</v>
+        <v>1318.976161682093</v>
       </c>
       <c r="W12" t="n">
         <v>1107.133638975067</v>
       </c>
       <c r="X12" t="n">
-        <v>941.6769727907102</v>
+        <v>941.6769727907099</v>
       </c>
       <c r="Y12" t="n">
-        <v>776.3115080469319</v>
+        <v>776.3115080469315</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.0290987327749</v>
+        <v>728.3002779434246</v>
       </c>
       <c r="C13" t="n">
-        <v>594.4877498260435</v>
+        <v>601.7589290366933</v>
       </c>
       <c r="D13" t="n">
-        <v>486.7659444348833</v>
+        <v>494.0371236455331</v>
       </c>
       <c r="E13" t="n">
-        <v>381.2476848736657</v>
+        <v>388.5188640843157</v>
       </c>
       <c r="F13" t="n">
-        <v>276.7525713969309</v>
+        <v>284.023750607581</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0145760131249</v>
+        <v>158.2857552237745</v>
       </c>
       <c r="H13" t="n">
-        <v>43.36919653809316</v>
+        <v>50.6403757487429</v>
       </c>
       <c r="I13" t="n">
         <v>43.36919653809316</v>
       </c>
       <c r="J13" t="n">
-        <v>100.2474860258965</v>
+        <v>100.2474860258967</v>
       </c>
       <c r="K13" t="n">
-        <v>296.8226539729791</v>
+        <v>296.8226539729793</v>
       </c>
       <c r="L13" t="n">
-        <v>592.2776011453514</v>
+        <v>592.2776011453516</v>
       </c>
       <c r="M13" t="n">
-        <v>911.923826960696</v>
+        <v>911.9238269606963</v>
       </c>
       <c r="N13" t="n">
         <v>1230.392190505881</v>
       </c>
       <c r="O13" t="n">
-        <v>1511.704914097878</v>
+        <v>1511.704914097879</v>
       </c>
       <c r="P13" t="n">
         <v>1734.892832040167</v>
@@ -5224,25 +5224,25 @@
         <v>1751.99513108014</v>
       </c>
       <c r="S13" t="n">
-        <v>1595.210479485542</v>
+        <v>1751.99513108014</v>
       </c>
       <c r="T13" t="n">
-        <v>1414.001456199341</v>
+        <v>1751.99513108014</v>
       </c>
       <c r="U13" t="n">
-        <v>1258.167100603392</v>
+        <v>1505.263644075339</v>
       </c>
       <c r="V13" t="n">
-        <v>1045.877446418681</v>
+        <v>1292.973989890628</v>
       </c>
       <c r="W13" t="n">
-        <v>1045.877446418681</v>
+        <v>1045.951653874843</v>
       </c>
       <c r="X13" t="n">
-        <v>860.282729541839</v>
+        <v>1045.951653874843</v>
       </c>
       <c r="Y13" t="n">
-        <v>860.282729541839</v>
+        <v>867.5539087524887</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1732.930671200806</v>
+        <v>1705.408117209312</v>
       </c>
       <c r="C14" t="n">
-        <v>1406.362988281569</v>
+        <v>1378.840434290076</v>
       </c>
       <c r="D14" t="n">
-        <v>1406.362988281569</v>
+        <v>1062.969569704501</v>
       </c>
       <c r="E14" t="n">
         <v>1062.969569704501</v>
       </c>
       <c r="F14" t="n">
-        <v>694.3784989360686</v>
+        <v>694.3784989360688</v>
       </c>
       <c r="G14" t="n">
-        <v>321.7008828022407</v>
+        <v>321.7008828022408</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,10 +5276,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5309,19 +5309,19 @@
         <v>3094.127073562839</v>
       </c>
       <c r="U14" t="n">
-        <v>2882.991430857851</v>
+        <v>2882.99143085785</v>
       </c>
       <c r="V14" t="n">
-        <v>2882.991430857851</v>
+        <v>2594.323377535455</v>
       </c>
       <c r="W14" t="n">
-        <v>2572.617609608912</v>
+        <v>2283.949556286516</v>
       </c>
       <c r="X14" t="n">
-        <v>2424.880175198388</v>
+        <v>2049.613123252258</v>
       </c>
       <c r="Y14" t="n">
-        <v>2077.135677243752</v>
+        <v>2049.613123252258</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5358,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>794.8498422935784</v>
+        <v>794.8498422935791</v>
       </c>
       <c r="C16" t="n">
-        <v>668.3084933868471</v>
+        <v>668.3084933868477</v>
       </c>
       <c r="D16" t="n">
-        <v>560.5866879956869</v>
+        <v>560.5866879956874</v>
       </c>
       <c r="E16" t="n">
-        <v>455.0684284344694</v>
+        <v>455.0684284344698</v>
       </c>
       <c r="F16" t="n">
-        <v>350.5733149577346</v>
+        <v>350.5733149577349</v>
       </c>
       <c r="G16" t="n">
-        <v>225.2653123536292</v>
+        <v>225.2653123536293</v>
       </c>
       <c r="H16" t="n">
-        <v>121.4429595926625</v>
+        <v>121.4429595926626</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>153.1859257032731</v>
+        <v>153.185925703273</v>
       </c>
       <c r="K16" t="n">
-        <v>398.7242854763037</v>
+        <v>398.7242854763034</v>
       </c>
       <c r="L16" t="n">
-        <v>756.8352607489541</v>
+        <v>756.8352607489535</v>
       </c>
       <c r="M16" t="n">
         <v>1142.543483172657</v>
       </c>
       <c r="N16" t="n">
-        <v>1525.503036702676</v>
+        <v>1525.503036702675</v>
       </c>
       <c r="O16" t="n">
         <v>1866.383812447243</v>
       </c>
       <c r="P16" t="n">
-        <v>2140.542489705057</v>
+        <v>2140.542489705056</v>
       </c>
       <c r="Q16" t="n">
-        <v>2259.703962681726</v>
+        <v>2259.703962681725</v>
       </c>
       <c r="R16" t="n">
-        <v>2212.26833946043</v>
+        <v>2212.268339460428</v>
       </c>
       <c r="S16" t="n">
-        <v>2062.977289308431</v>
+        <v>2062.97728930843</v>
       </c>
       <c r="T16" t="n">
-        <v>1883.605507899133</v>
+        <v>1883.605507899131</v>
       </c>
       <c r="U16" t="n">
-        <v>1636.897475045951</v>
+        <v>1757.407925302336</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.60782086124</v>
+        <v>1545.118271117625</v>
       </c>
       <c r="W16" t="n">
-        <v>1177.585484845455</v>
+        <v>1298.09593510184</v>
       </c>
       <c r="X16" t="n">
-        <v>991.9907679686131</v>
+        <v>1112.501218224998</v>
       </c>
       <c r="Y16" t="n">
-        <v>813.5930228462586</v>
+        <v>934.1034731026433</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G17" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,34 +5513,34 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T17" t="n">
         <v>3206.680274668175</v>
@@ -5549,7 +5549,7 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W17" t="n">
         <v>2565.332559049857</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,10 +5595,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,31 +5610,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245366</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159865</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5671,52 +5671,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>175.0427429954468</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>370.0614702889411</v>
+        <v>273.3535972631172</v>
       </c>
       <c r="L19" t="n">
-        <v>622.4791872371222</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M19" t="n">
-        <v>886.6195415621439</v>
+        <v>693.2037955104962</v>
       </c>
       <c r="N19" t="n">
-        <v>1154.636251617815</v>
+        <v>961.2205055661677</v>
       </c>
       <c r="O19" t="n">
-        <v>1292.554600836005</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P19" t="n">
         <v>1391.505603588764</v>
       </c>
       <c r="Q19" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464981</v>
+        <v>894.1397680464984</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307344</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,46 +5750,46 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V20" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
         <v>2290.538235362621</v>
@@ -5823,7 +5823,7 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245366</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159865</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G22" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H22" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226775</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>79.6538467897072</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>177.9647010573776</v>
       </c>
       <c r="L22" t="n">
-        <v>417.9047360313302</v>
+        <v>409.2396941488504</v>
       </c>
       <c r="M22" t="n">
-        <v>682.0450903563519</v>
+        <v>673.3800484738722</v>
       </c>
       <c r="N22" t="n">
-        <v>950.0618004120233</v>
+        <v>941.3967585295437</v>
       </c>
       <c r="O22" t="n">
-        <v>1184.688022656037</v>
+        <v>1176.022980773557</v>
       </c>
       <c r="P22" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.68185655214</v>
       </c>
       <c r="Q22" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
     <row r="23">
@@ -5972,67 +5972,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F23" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912065</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081053</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329462</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001386</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245366</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226769</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>155.2189959588226</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>350.237723252317</v>
       </c>
       <c r="L25" t="n">
-        <v>417.9047360313302</v>
+        <v>602.6554402004983</v>
       </c>
       <c r="M25" t="n">
-        <v>682.0450903563519</v>
+        <v>866.7957945255201</v>
       </c>
       <c r="N25" t="n">
-        <v>950.0618004120233</v>
+        <v>1038.104631555368</v>
       </c>
       <c r="O25" t="n">
-        <v>1184.688022656037</v>
+        <v>1272.730853799382</v>
       </c>
       <c r="P25" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.68185655214</v>
       </c>
       <c r="Q25" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1977.623746317764</v>
+        <v>1977.623746317762</v>
       </c>
       <c r="C26" t="n">
-        <v>1664.93782993002</v>
+        <v>1664.937829930018</v>
       </c>
       <c r="D26" t="n">
-        <v>1362.948731875937</v>
+        <v>1362.948731875936</v>
       </c>
       <c r="E26" t="n">
-        <v>1033.437079830361</v>
+        <v>1033.437079830359</v>
       </c>
       <c r="F26" t="n">
-        <v>678.727775593421</v>
+        <v>678.7277755934197</v>
       </c>
       <c r="G26" t="n">
-        <v>319.9319259910843</v>
+        <v>319.9319259910841</v>
       </c>
       <c r="H26" t="n">
-        <v>78.62492615251931</v>
+        <v>78.62492615251927</v>
       </c>
       <c r="I26" t="n">
-        <v>92.62046187899236</v>
+        <v>92.62046187899239</v>
       </c>
       <c r="J26" t="n">
-        <v>419.7781637946458</v>
+        <v>419.7781637946423</v>
       </c>
       <c r="K26" t="n">
-        <v>808.754233686162</v>
+        <v>808.7542336861586</v>
       </c>
       <c r="L26" t="n">
-        <v>1314.945143136241</v>
+        <v>1314.945143136237</v>
       </c>
       <c r="M26" t="n">
-        <v>1903.633744009835</v>
+        <v>1903.633744009831</v>
       </c>
       <c r="N26" t="n">
-        <v>2505.569257270287</v>
+        <v>2505.569257270284</v>
       </c>
       <c r="O26" t="n">
-        <v>3063.698424351293</v>
+        <v>3063.698424351291</v>
       </c>
       <c r="P26" t="n">
-        <v>3513.629486910141</v>
+        <v>3513.629486910138</v>
       </c>
       <c r="Q26" t="n">
-        <v>3817.072544867493</v>
+        <v>3817.072544867491</v>
       </c>
       <c r="R26" t="n">
-        <v>3931.246307625966</v>
+        <v>3931.246307625963</v>
       </c>
       <c r="S26" t="n">
-        <v>3877.232239705728</v>
+        <v>3877.232239705726</v>
       </c>
       <c r="T26" t="n">
-        <v>3727.531092642618</v>
+        <v>3727.531092642616</v>
       </c>
       <c r="U26" t="n">
-        <v>3530.277216469123</v>
+        <v>3530.277216469121</v>
       </c>
       <c r="V26" t="n">
-        <v>3255.49092967822</v>
+        <v>3255.490929678218</v>
       </c>
       <c r="W26" t="n">
-        <v>2958.998874960774</v>
+        <v>2958.998874960772</v>
       </c>
       <c r="X26" t="n">
-        <v>2641.809717252362</v>
+        <v>2641.80971725236</v>
       </c>
       <c r="Y26" t="n">
-        <v>2307.946985829218</v>
+        <v>2307.946985829216</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>953.6566642014444</v>
+        <v>953.6566642014443</v>
       </c>
       <c r="C27" t="n">
         <v>779.2036349203174</v>
@@ -6297,16 +6297,16 @@
         <v>188.1341121131138</v>
       </c>
       <c r="H27" t="n">
-        <v>97.63221775098134</v>
+        <v>97.63221775098131</v>
       </c>
       <c r="I27" t="n">
-        <v>78.62492615251931</v>
+        <v>78.62492615251927</v>
       </c>
       <c r="J27" t="n">
-        <v>172.3021956431367</v>
+        <v>172.3021956431366</v>
       </c>
       <c r="K27" t="n">
-        <v>410.5663946234838</v>
+        <v>410.5663946234837</v>
       </c>
       <c r="L27" t="n">
         <v>777.2645549361491</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.7902862934685</v>
+        <v>709.7902862934678</v>
       </c>
       <c r="C28" t="n">
-        <v>597.1307039182294</v>
+        <v>597.1307039182288</v>
       </c>
       <c r="D28" t="n">
-        <v>503.2906650585616</v>
+        <v>503.290665058561</v>
       </c>
       <c r="E28" t="n">
-        <v>411.6541720288363</v>
+        <v>411.6541720288358</v>
       </c>
       <c r="F28" t="n">
-        <v>321.0408250835937</v>
+        <v>321.0408250835934</v>
       </c>
       <c r="G28" t="n">
-        <v>209.6145890109805</v>
+        <v>209.6145890109803</v>
       </c>
       <c r="H28" t="n">
-        <v>119.6740027815061</v>
+        <v>119.674002781506</v>
       </c>
       <c r="I28" t="n">
-        <v>78.62492615251931</v>
+        <v>78.62492615251927</v>
       </c>
       <c r="J28" t="n">
         <v>145.6043758916285</v>
       </c>
       <c r="K28" t="n">
-        <v>404.3307289844046</v>
+        <v>299.0719263609687</v>
       </c>
       <c r="L28" t="n">
-        <v>776.0472236345705</v>
+        <v>670.7884210111347</v>
       </c>
       <c r="M28" t="n">
-        <v>998.6364011354381</v>
+        <v>1070.102162812354</v>
       </c>
       <c r="N28" t="n">
-        <v>1395.201474042972</v>
+        <v>1466.667235719888</v>
       </c>
       <c r="O28" t="n">
-        <v>1749.687769165056</v>
+        <v>1821.153530841971</v>
       </c>
       <c r="P28" t="n">
-        <v>2037.451965800385</v>
+        <v>2102.141494594357</v>
       </c>
       <c r="Q28" t="n">
-        <v>2170.218958154569</v>
+        <v>2170.218958154567</v>
       </c>
       <c r="R28" t="n">
-        <v>2136.665101464765</v>
+        <v>2136.665101464763</v>
       </c>
       <c r="S28" t="n">
-        <v>2001.255817844259</v>
+        <v>2001.255817844258</v>
       </c>
       <c r="T28" t="n">
-        <v>1835.765802966453</v>
+        <v>1835.765802966451</v>
       </c>
       <c r="U28" t="n">
-        <v>1602.939536644764</v>
+        <v>1602.939536644763</v>
       </c>
       <c r="V28" t="n">
-        <v>1404.531648991545</v>
+        <v>1404.531648991544</v>
       </c>
       <c r="W28" t="n">
-        <v>1171.391079507252</v>
+        <v>1171.391079507251</v>
       </c>
       <c r="X28" t="n">
-        <v>999.6781291619027</v>
+        <v>999.6781291619019</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.1621505710403</v>
+        <v>835.1621505710397</v>
       </c>
     </row>
     <row r="29">
@@ -6452,61 +6452,61 @@
         <v>678.7277755934201</v>
       </c>
       <c r="G29" t="n">
-        <v>319.9319259910843</v>
+        <v>319.9319259910841</v>
       </c>
       <c r="H29" t="n">
-        <v>78.62492615251931</v>
+        <v>78.62492615251927</v>
       </c>
       <c r="I29" t="n">
-        <v>92.62046187899236</v>
+        <v>92.62046187899244</v>
       </c>
       <c r="J29" t="n">
-        <v>336.6562890396875</v>
+        <v>354.718908120389</v>
       </c>
       <c r="K29" t="n">
-        <v>808.754233686162</v>
+        <v>743.6949780119054</v>
       </c>
       <c r="L29" t="n">
-        <v>1314.945143136241</v>
+        <v>1249.885887461984</v>
       </c>
       <c r="M29" t="n">
-        <v>1903.633744009835</v>
+        <v>1838.574488335578</v>
       </c>
       <c r="N29" t="n">
-        <v>2505.569257270287</v>
+        <v>2440.510001596031</v>
       </c>
       <c r="O29" t="n">
-        <v>3063.698424351293</v>
+        <v>2998.639168677038</v>
       </c>
       <c r="P29" t="n">
-        <v>3513.629486910141</v>
+        <v>3448.570231235886</v>
       </c>
       <c r="Q29" t="n">
-        <v>3817.072544867493</v>
+        <v>3752.013289193238</v>
       </c>
       <c r="R29" t="n">
-        <v>3931.246307625966</v>
+        <v>3931.246307625963</v>
       </c>
       <c r="S29" t="n">
-        <v>3877.232239705728</v>
+        <v>3877.232239705726</v>
       </c>
       <c r="T29" t="n">
-        <v>3727.531092642618</v>
+        <v>3727.531092642616</v>
       </c>
       <c r="U29" t="n">
-        <v>3530.277216469122</v>
+        <v>3530.277216469121</v>
       </c>
       <c r="V29" t="n">
-        <v>3255.490929678219</v>
+        <v>3255.490929678218</v>
       </c>
       <c r="W29" t="n">
-        <v>2958.998874960773</v>
+        <v>2958.998874960772</v>
       </c>
       <c r="X29" t="n">
-        <v>2641.809717252361</v>
+        <v>2641.80971725236</v>
       </c>
       <c r="Y29" t="n">
-        <v>2307.946985829217</v>
+        <v>2307.946985829216</v>
       </c>
     </row>
     <row r="30">
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>953.6566642014443</v>
+        <v>953.6566642014445</v>
       </c>
       <c r="C30" t="n">
-        <v>779.2036349203173</v>
+        <v>779.2036349203175</v>
       </c>
       <c r="D30" t="n">
-        <v>630.269225259066</v>
+        <v>630.2692252590664</v>
       </c>
       <c r="E30" t="n">
-        <v>471.0317702536105</v>
+        <v>471.0317702536108</v>
       </c>
       <c r="F30" t="n">
-        <v>324.4972122804955</v>
+        <v>324.4972122804959</v>
       </c>
       <c r="G30" t="n">
-        <v>188.1341121131138</v>
+        <v>188.1341121131147</v>
       </c>
       <c r="H30" t="n">
-        <v>97.63221775098134</v>
+        <v>97.63221775098168</v>
       </c>
       <c r="I30" t="n">
-        <v>78.62492615251931</v>
+        <v>78.62492615251927</v>
       </c>
       <c r="J30" t="n">
-        <v>172.3021956431367</v>
+        <v>172.3021956431369</v>
       </c>
       <c r="K30" t="n">
-        <v>410.5663946234838</v>
+        <v>410.5663946234843</v>
       </c>
       <c r="L30" t="n">
-        <v>777.2645549361491</v>
+        <v>777.2645549361494</v>
       </c>
       <c r="M30" t="n">
         <v>1224.540880158465</v>
       </c>
       <c r="N30" t="n">
-        <v>1698.063923712919</v>
+        <v>1698.06392371292</v>
       </c>
       <c r="O30" t="n">
-        <v>2109.025203130974</v>
+        <v>2109.025203130975</v>
       </c>
       <c r="P30" t="n">
-        <v>2419.524794607077</v>
+        <v>2419.524794607078</v>
       </c>
       <c r="Q30" t="n">
         <v>2577.166352253677</v>
       </c>
       <c r="R30" t="n">
-        <v>2577.021998846192</v>
+        <v>2577.021998846193</v>
       </c>
       <c r="S30" t="n">
-        <v>2447.584112339672</v>
+        <v>2447.584112339673</v>
       </c>
       <c r="T30" t="n">
         <v>2254.941112017528</v>
       </c>
       <c r="U30" t="n">
-        <v>2026.873265151943</v>
+        <v>2026.873265151944</v>
       </c>
       <c r="V30" t="n">
         <v>1791.721156920201</v>
@@ -6585,7 +6585,7 @@
         <v>1329.632299986466</v>
       </c>
       <c r="Y30" t="n">
-        <v>1121.872001221512</v>
+        <v>1121.872001221513</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.7902862934685</v>
+        <v>709.7902862934676</v>
       </c>
       <c r="C31" t="n">
-        <v>597.1307039182294</v>
+        <v>597.1307039182286</v>
       </c>
       <c r="D31" t="n">
-        <v>503.2906650585616</v>
+        <v>503.2906650585608</v>
       </c>
       <c r="E31" t="n">
-        <v>411.6541720288363</v>
+        <v>411.6541720288357</v>
       </c>
       <c r="F31" t="n">
-        <v>321.0408250835937</v>
+        <v>321.0408250835933</v>
       </c>
       <c r="G31" t="n">
-        <v>209.6145890109805</v>
+        <v>209.6145890109802</v>
       </c>
       <c r="H31" t="n">
-        <v>119.6740027815061</v>
+        <v>119.6740027815059</v>
       </c>
       <c r="I31" t="n">
-        <v>78.62492615251931</v>
+        <v>78.62492615251927</v>
       </c>
       <c r="J31" t="n">
-        <v>145.6043758916285</v>
+        <v>145.6043758916286</v>
       </c>
       <c r="K31" t="n">
-        <v>299.0719263609686</v>
+        <v>404.7482550421748</v>
       </c>
       <c r="L31" t="n">
-        <v>670.7884210111345</v>
+        <v>776.0472236345674</v>
       </c>
       <c r="M31" t="n">
-        <v>1070.102162812353</v>
+        <v>998.6364011354351</v>
       </c>
       <c r="N31" t="n">
-        <v>1466.667235719888</v>
+        <v>1395.20147404297</v>
       </c>
       <c r="O31" t="n">
-        <v>1821.153530841971</v>
+        <v>1749.687769165053</v>
       </c>
       <c r="P31" t="n">
-        <v>2102.141494594358</v>
+        <v>2037.451965800382</v>
       </c>
       <c r="Q31" t="n">
-        <v>2170.218958154569</v>
+        <v>2170.218958154567</v>
       </c>
       <c r="R31" t="n">
-        <v>2136.665101464765</v>
+        <v>2136.665101464763</v>
       </c>
       <c r="S31" t="n">
-        <v>2001.255817844259</v>
+        <v>2001.255817844257</v>
       </c>
       <c r="T31" t="n">
-        <v>1835.765802966453</v>
+        <v>1835.765802966451</v>
       </c>
       <c r="U31" t="n">
-        <v>1602.939536644764</v>
+        <v>1602.939536644762</v>
       </c>
       <c r="V31" t="n">
-        <v>1404.531648991545</v>
+        <v>1404.531648991544</v>
       </c>
       <c r="W31" t="n">
-        <v>1171.391079507252</v>
+        <v>1171.391079507251</v>
       </c>
       <c r="X31" t="n">
-        <v>999.6781291619027</v>
+        <v>999.6781291619014</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.1621505710403</v>
+        <v>835.1621505710393</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1977.623746317763</v>
+        <v>1977.623746317762</v>
       </c>
       <c r="C32" t="n">
-        <v>1664.937829930019</v>
+        <v>1664.937829930018</v>
       </c>
       <c r="D32" t="n">
         <v>1362.948731875936</v>
       </c>
       <c r="E32" t="n">
-        <v>1033.43707983036</v>
+        <v>1033.437079830359</v>
       </c>
       <c r="F32" t="n">
         <v>678.7277755934201</v>
       </c>
       <c r="G32" t="n">
-        <v>319.9319259910844</v>
+        <v>319.9319259910841</v>
       </c>
       <c r="H32" t="n">
-        <v>78.62492615251931</v>
+        <v>78.62492615251927</v>
       </c>
       <c r="I32" t="n">
-        <v>92.62046187899227</v>
+        <v>92.62046187899239</v>
       </c>
       <c r="J32" t="n">
-        <v>336.6562890396874</v>
+        <v>336.6562890396876</v>
       </c>
       <c r="K32" t="n">
-        <v>808.7542336861628</v>
+        <v>725.632358931204</v>
       </c>
       <c r="L32" t="n">
-        <v>1314.945143136241</v>
+        <v>1314.945143136237</v>
       </c>
       <c r="M32" t="n">
-        <v>1903.633744009835</v>
+        <v>1903.633744009831</v>
       </c>
       <c r="N32" t="n">
-        <v>2505.569257270287</v>
+        <v>2505.569257270284</v>
       </c>
       <c r="O32" t="n">
-        <v>3063.698424351294</v>
+        <v>3063.698424351291</v>
       </c>
       <c r="P32" t="n">
-        <v>3513.629486910142</v>
+        <v>3513.629486910138</v>
       </c>
       <c r="Q32" t="n">
-        <v>3817.072544867493</v>
+        <v>3817.072544867491</v>
       </c>
       <c r="R32" t="n">
-        <v>3931.246307625966</v>
+        <v>3931.246307625963</v>
       </c>
       <c r="S32" t="n">
-        <v>3877.232239705728</v>
+        <v>3877.232239705726</v>
       </c>
       <c r="T32" t="n">
-        <v>3727.531092642618</v>
+        <v>3727.531092642616</v>
       </c>
       <c r="U32" t="n">
-        <v>3530.277216469122</v>
+        <v>3530.277216469121</v>
       </c>
       <c r="V32" t="n">
-        <v>3255.490929678219</v>
+        <v>3255.490929678218</v>
       </c>
       <c r="W32" t="n">
-        <v>2958.998874960773</v>
+        <v>2958.998874960772</v>
       </c>
       <c r="X32" t="n">
-        <v>2641.809717252361</v>
+        <v>2641.80971725236</v>
       </c>
       <c r="Y32" t="n">
-        <v>2307.946985829217</v>
+        <v>2307.946985829216</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>953.6566642014443</v>
+        <v>953.6566642014444</v>
       </c>
       <c r="C33" t="n">
-        <v>779.2036349203173</v>
+        <v>779.2036349203174</v>
       </c>
       <c r="D33" t="n">
-        <v>630.269225259066</v>
+        <v>630.2692252590662</v>
       </c>
       <c r="E33" t="n">
-        <v>471.0317702536105</v>
+        <v>471.0317702536107</v>
       </c>
       <c r="F33" t="n">
-        <v>324.4972122804955</v>
+        <v>324.4972122804957</v>
       </c>
       <c r="G33" t="n">
-        <v>188.1341121131136</v>
+        <v>188.1341121131138</v>
       </c>
       <c r="H33" t="n">
-        <v>97.63221775098134</v>
+        <v>97.63221775098131</v>
       </c>
       <c r="I33" t="n">
-        <v>78.62492615251931</v>
+        <v>78.62492615251927</v>
       </c>
       <c r="J33" t="n">
-        <v>172.3021956431367</v>
+        <v>172.3021956431366</v>
       </c>
       <c r="K33" t="n">
-        <v>410.5663946234838</v>
+        <v>410.5663946234837</v>
       </c>
       <c r="L33" t="n">
         <v>777.2645549361491</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.7902862934692</v>
+        <v>709.7902862934678</v>
       </c>
       <c r="C34" t="n">
-        <v>597.13070391823</v>
+        <v>597.1307039182288</v>
       </c>
       <c r="D34" t="n">
-        <v>503.290665058562</v>
+        <v>503.290665058561</v>
       </c>
       <c r="E34" t="n">
-        <v>411.6541720288366</v>
+        <v>411.6541720288358</v>
       </c>
       <c r="F34" t="n">
-        <v>321.040825083594</v>
+        <v>321.0408250835934</v>
       </c>
       <c r="G34" t="n">
-        <v>209.6145890109807</v>
+        <v>209.6145890109803</v>
       </c>
       <c r="H34" t="n">
-        <v>119.6740027815062</v>
+        <v>119.674002781506</v>
       </c>
       <c r="I34" t="n">
-        <v>78.62492615251931</v>
+        <v>78.62492615251927</v>
       </c>
       <c r="J34" t="n">
-        <v>145.6043758916284</v>
+        <v>145.6043758916286</v>
       </c>
       <c r="K34" t="n">
-        <v>299.0719263609684</v>
+        <v>299.0719263609687</v>
       </c>
       <c r="L34" t="n">
-        <v>670.7884210111342</v>
+        <v>664.0121881281907</v>
       </c>
       <c r="M34" t="n">
-        <v>1070.102162812353</v>
+        <v>1063.32592992941</v>
       </c>
       <c r="N34" t="n">
-        <v>1466.667235719887</v>
+        <v>1459.891002836944</v>
       </c>
       <c r="O34" t="n">
-        <v>1821.15353084197</v>
+        <v>1814.377297959027</v>
       </c>
       <c r="P34" t="n">
-        <v>2102.14149459436</v>
+        <v>2102.141494594357</v>
       </c>
       <c r="Q34" t="n">
-        <v>2170.21895815457</v>
+        <v>2170.218958154567</v>
       </c>
       <c r="R34" t="n">
-        <v>2136.665101464766</v>
+        <v>2136.665101464763</v>
       </c>
       <c r="S34" t="n">
-        <v>2001.25581784426</v>
+        <v>2001.255817844258</v>
       </c>
       <c r="T34" t="n">
-        <v>1835.765802966454</v>
+        <v>1835.765802966451</v>
       </c>
       <c r="U34" t="n">
-        <v>1602.939536644765</v>
+        <v>1602.939536644763</v>
       </c>
       <c r="V34" t="n">
-        <v>1404.531648991546</v>
+        <v>1404.531648991544</v>
       </c>
       <c r="W34" t="n">
-        <v>1171.391079507253</v>
+        <v>1171.391079507251</v>
       </c>
       <c r="X34" t="n">
-        <v>999.6781291619035</v>
+        <v>999.6781291619019</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.1621505710411</v>
+        <v>835.1621505710397</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470376</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464988</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307346</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218559</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391211</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810575</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710112</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668177</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049859</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362623</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960654</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228008</v>
@@ -7020,28 +7020,28 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7053,7 +7053,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7084,28 +7084,28 @@
         <v>183.0892706919201</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K37" t="n">
-        <v>262.1948921089742</v>
+        <v>358.9027651347979</v>
       </c>
       <c r="L37" t="n">
-        <v>514.6126090571553</v>
+        <v>514.6126090571552</v>
       </c>
       <c r="M37" t="n">
-        <v>682.0450903563531</v>
+        <v>778.7529633821769</v>
       </c>
       <c r="N37" t="n">
-        <v>950.0618004120244</v>
+        <v>1046.769673437848</v>
       </c>
       <c r="O37" t="n">
         <v>1184.688022656038</v>
@@ -7151,43 +7151,43 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7196,28 +7196,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228008</v>
@@ -7257,7 +7257,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7296,7 +7296,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7321,34 +7321,34 @@
         <v>183.0892706919201</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>78.3348699696229</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>370.0614702889409</v>
       </c>
       <c r="L40" t="n">
-        <v>429.0634411854744</v>
+        <v>622.479187237122</v>
       </c>
       <c r="M40" t="n">
-        <v>682.0450903563531</v>
+        <v>886.6195415621437</v>
       </c>
       <c r="N40" t="n">
-        <v>950.0618004120244</v>
+        <v>1154.636251617815</v>
       </c>
       <c r="O40" t="n">
-        <v>1184.688022656038</v>
+        <v>1378.103768707686</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.34689843462</v>
+        <v>1477.054771460444</v>
       </c>
       <c r="Q40" t="n">
         <v>1489.975538818985</v>
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218377</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7439,7 +7439,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
@@ -7451,10 +7451,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.259395817093</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630294</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919201</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>79.65384678970709</v>
       </c>
       <c r="K43" t="n">
-        <v>262.1948921089742</v>
+        <v>177.9647010573775</v>
       </c>
       <c r="L43" t="n">
-        <v>417.9047360313314</v>
+        <v>409.2396941488528</v>
       </c>
       <c r="M43" t="n">
-        <v>682.0450903563531</v>
+        <v>673.3800484738745</v>
       </c>
       <c r="N43" t="n">
-        <v>950.0618004120244</v>
+        <v>941.3967585295459</v>
       </c>
       <c r="O43" t="n">
-        <v>1184.688022656038</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734894</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226769</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954468</v>
+        <v>176.3617198155311</v>
       </c>
       <c r="K46" t="n">
-        <v>370.0614702889411</v>
+        <v>371.3804471090255</v>
       </c>
       <c r="L46" t="n">
-        <v>622.4791872371222</v>
+        <v>623.7981640572067</v>
       </c>
       <c r="M46" t="n">
-        <v>886.6195415621439</v>
+        <v>887.9385183822285</v>
       </c>
       <c r="N46" t="n">
-        <v>1143.477546463671</v>
+        <v>1134.812504581193</v>
       </c>
       <c r="O46" t="n">
-        <v>1378.103768707685</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P46" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304658</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673486</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431748</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
   </sheetData>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>83.96148965147299</v>
+        <v>83.96148965146932</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10033,13 +10033,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.3220228519556</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10048,10 +10048,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>128.1618836342997</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>18.24506977848614</v>
       </c>
       <c r="K29" t="n">
-        <v>83.96148965147296</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10270,13 +10270,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>162.052958048854</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
@@ -10285,10 +10285,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>128.1618836343021</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>83.9614896514741</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>83.96148965146932</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>155.630021861813</v>
       </c>
       <c r="M34" t="n">
         <v>178.5096609094456</v>
@@ -10522,7 +10522,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>128.1618836343043</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>323.3020060900437</v>
       </c>
       <c r="D11" t="n">
-        <v>312.7121559397191</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>339.959484391298</v>
+        <v>330.1616956936844</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>364.9051600607476</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>262.3559190752192</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.192720896119</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>65.0164200948454</v>
+        <v>285.781372789171</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>307.2700830364491</v>
       </c>
       <c r="X11" t="n">
         <v>327.7602149975052</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.2670529750898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>67.18327976611965</v>
+        <v>59.98481234757674</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.216805078652</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>179.3969330533388</v>
       </c>
       <c r="U13" t="n">
-        <v>89.98816009476249</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>244.5521126556272</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>183.7387697080733</v>
       </c>
       <c r="Y13" t="n">
-        <v>176.613767671131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>312.7121559397191</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>339.9594843912981</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>285.7813727891711</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.5001549310862</v>
+        <v>95.76714629358932</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>344.2670529750899</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119.3053457538201</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>119.305345753822</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1086399.950468861</v>
+        <v>1086399.950468862</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81927.63387170385</v>
+        <v>81927.63387170382</v>
       </c>
       <c r="C2" t="n">
-        <v>81927.63387170385</v>
+        <v>81927.63387170383</v>
       </c>
       <c r="D2" t="n">
-        <v>81934.38668374368</v>
+        <v>81934.38668374369</v>
       </c>
       <c r="E2" t="n">
-        <v>64992.19631961083</v>
+        <v>64992.1963196108</v>
       </c>
       <c r="F2" t="n">
-        <v>75609.09443468577</v>
+        <v>75609.09443468568</v>
       </c>
       <c r="G2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="H2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="I2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82104.17698642812</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.17698642847</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="M2" t="n">
         <v>82104.17698642836</v>
       </c>
-      <c r="H2" t="n">
-        <v>82104.17698642837</v>
-      </c>
-      <c r="I2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82104.17698642817</v>
-      </c>
-      <c r="K2" t="n">
-        <v>82104.17698642817</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642809</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="N2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642834</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642828</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>180725.0865729368</v>
+        <v>180725.0865729373</v>
       </c>
       <c r="E3" t="n">
-        <v>711775.5967630025</v>
+        <v>711775.5967630021</v>
       </c>
       <c r="F3" t="n">
-        <v>269485.3211896554</v>
+        <v>269485.3211896551</v>
       </c>
       <c r="G3" t="n">
-        <v>44571.06763771291</v>
+        <v>44571.06763771308</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>39615.54983084457</v>
+        <v>39615.54983084455</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44571.06763771285</v>
+        <v>44571.06763771304</v>
       </c>
       <c r="M3" t="n">
-        <v>130941.9163014259</v>
+        <v>130941.916301426</v>
       </c>
       <c r="N3" t="n">
-        <v>70854.07426124807</v>
+        <v>70854.07426124791</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>394063.4811291246</v>
+        <v>394063.4811291244</v>
       </c>
       <c r="E4" t="n">
-        <v>77140.64702311758</v>
+        <v>77140.64702311765</v>
       </c>
       <c r="F4" t="n">
-        <v>57045.55524722843</v>
+        <v>57045.55524722839</v>
       </c>
       <c r="G4" t="n">
+        <v>93774.13782657712</v>
+      </c>
+      <c r="H4" t="n">
+        <v>93774.13782657709</v>
+      </c>
+      <c r="I4" t="n">
+        <v>93774.13782657697</v>
+      </c>
+      <c r="J4" t="n">
+        <v>94705.9960446211</v>
+      </c>
+      <c r="K4" t="n">
+        <v>94705.99604462116</v>
+      </c>
+      <c r="L4" t="n">
+        <v>94705.9960446211</v>
+      </c>
+      <c r="M4" t="n">
+        <v>93774.13782657703</v>
+      </c>
+      <c r="N4" t="n">
+        <v>93774.13782657693</v>
+      </c>
+      <c r="O4" t="n">
         <v>93774.137826577</v>
       </c>
-      <c r="H4" t="n">
-        <v>93774.137826577</v>
-      </c>
-      <c r="I4" t="n">
-        <v>93774.137826577</v>
-      </c>
-      <c r="J4" t="n">
-        <v>94705.99604462122</v>
-      </c>
-      <c r="K4" t="n">
-        <v>94705.99604462122</v>
-      </c>
-      <c r="L4" t="n">
-        <v>94705.99604462116</v>
-      </c>
-      <c r="M4" t="n">
-        <v>93774.13782657692</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93774.13782657692</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93774.13782657692</v>
-      </c>
       <c r="P4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657705</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38227.95320217795</v>
+        <v>38227.95320217796</v>
       </c>
       <c r="E5" t="n">
         <v>55099.93224418529</v>
       </c>
       <c r="F5" t="n">
-        <v>77834.79094970625</v>
+        <v>77834.79094970624</v>
       </c>
       <c r="G5" t="n">
         <v>82518.59730624987</v>
@@ -26488,25 +26488,25 @@
         <v>82518.59730624987</v>
       </c>
       <c r="I5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="J5" t="n">
+        <v>88195.88230539215</v>
+      </c>
+      <c r="K5" t="n">
+        <v>88195.88230539215</v>
+      </c>
+      <c r="L5" t="n">
+        <v>88195.88230539215</v>
+      </c>
+      <c r="M5" t="n">
+        <v>82518.59730624988</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
-      <c r="J5" t="n">
-        <v>88195.88230539218</v>
-      </c>
-      <c r="K5" t="n">
-        <v>88195.88230539218</v>
-      </c>
-      <c r="L5" t="n">
-        <v>88195.88230539218</v>
-      </c>
-      <c r="M5" t="n">
-        <v>82518.59730624985</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>82518.59730624987</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419315.9260600273</v>
+        <v>-419320.3396378955</v>
       </c>
       <c r="C6" t="n">
-        <v>-419315.9260600273</v>
+        <v>-419320.3396378955</v>
       </c>
       <c r="D6" t="n">
-        <v>-531082.1342204956</v>
+        <v>-531086.378978063</v>
       </c>
       <c r="E6" t="n">
-        <v>-779023.9797106945</v>
+        <v>-779451.7792273646</v>
       </c>
       <c r="F6" t="n">
-        <v>-328756.5729519043</v>
+        <v>-328918.9500156976</v>
       </c>
       <c r="G6" t="n">
-        <v>-138759.6257841114</v>
+        <v>-138759.6257841118</v>
       </c>
       <c r="H6" t="n">
-        <v>-94188.5581463985</v>
+        <v>-94188.55814639863</v>
       </c>
       <c r="I6" t="n">
-        <v>-94188.5581463985</v>
+        <v>-94188.55814639834</v>
       </c>
       <c r="J6" t="n">
-        <v>-140413.2511944298</v>
+        <v>-140413.2511944297</v>
       </c>
       <c r="K6" t="n">
-        <v>-100797.7013635852</v>
+        <v>-100797.7013635848</v>
       </c>
       <c r="L6" t="n">
-        <v>-145368.7690012981</v>
+        <v>-145368.769001298</v>
       </c>
       <c r="M6" t="n">
-        <v>-225130.4744478243</v>
+        <v>-225130.4744478245</v>
       </c>
       <c r="N6" t="n">
-        <v>-165042.6324076465</v>
+        <v>-165042.6324076463</v>
       </c>
       <c r="O6" t="n">
-        <v>-94188.55814639843</v>
+        <v>-94188.55814639862</v>
       </c>
       <c r="P6" t="n">
-        <v>-94188.5581463986</v>
+        <v>-94188.55814639863</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="F2" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="J2" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="K2" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="L2" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810487</v>
@@ -26722,10 +26722,10 @@
         <v>97.68472022810487</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>211.0253762466947</v>
+        <v>211.0253762466953</v>
       </c>
       <c r="E3" t="n">
         <v>853.7106645376851</v>
@@ -26802,34 +26802,34 @@
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="J4" t="n">
-        <v>982.8115769064914</v>
+        <v>982.8115769064908</v>
       </c>
       <c r="K4" t="n">
-        <v>982.8115769064914</v>
+        <v>982.8115769064908</v>
       </c>
       <c r="L4" t="n">
-        <v>982.8115769064914</v>
+        <v>982.8115769064908</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022933</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714135</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.71383454714107</v>
+        <v>55.7138345471413</v>
       </c>
       <c r="M2" t="n">
-        <v>41.9708856809638</v>
+        <v>41.97088568096363</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>211.0253762466947</v>
+        <v>211.0253762466953</v>
       </c>
       <c r="E3" t="n">
-        <v>642.6852882909905</v>
+        <v>642.6852882909899</v>
       </c>
       <c r="F3" t="n">
-        <v>236.0660360556132</v>
+        <v>236.0660360556129</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>151.4101215041987</v>
+        <v>151.4101215041986</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>390.7048352219661</v>
+        <v>390.7048352219671</v>
       </c>
       <c r="N4" t="n">
-        <v>289.2864986761283</v>
+        <v>289.2864986761276</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714135</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,34 +27871,34 @@
         <v>330.7867071027562</v>
       </c>
       <c r="I8" t="n">
-        <v>177.7701375392473</v>
+        <v>177.7701375392472</v>
       </c>
       <c r="J8" t="n">
-        <v>109.0438340655088</v>
+        <v>109.0438340655086</v>
       </c>
       <c r="K8" t="n">
-        <v>112.1774120349685</v>
+        <v>112.1774120349682</v>
       </c>
       <c r="L8" t="n">
-        <v>101.8914921074736</v>
+        <v>101.8914921074732</v>
       </c>
       <c r="M8" t="n">
-        <v>81.38458660665998</v>
+        <v>81.38458660665952</v>
       </c>
       <c r="N8" t="n">
-        <v>78.04106179904983</v>
+        <v>78.04106179904937</v>
       </c>
       <c r="O8" t="n">
-        <v>87.1619225288816</v>
+        <v>87.16192252888118</v>
       </c>
       <c r="P8" t="n">
-        <v>109.2401801331791</v>
+        <v>109.2401801331787</v>
       </c>
       <c r="Q8" t="n">
-        <v>130.6941658577249</v>
+        <v>130.6941658577246</v>
       </c>
       <c r="R8" t="n">
-        <v>162.2957979521967</v>
+        <v>162.2957979521966</v>
       </c>
       <c r="S8" t="n">
         <v>189.6884484356059</v>
@@ -27950,31 +27950,31 @@
         <v>107.8516906657868</v>
       </c>
       <c r="I9" t="n">
-        <v>83.89455732512685</v>
+        <v>83.89455732512681</v>
       </c>
       <c r="J9" t="n">
-        <v>83.95368676355301</v>
+        <v>83.95368676355288</v>
       </c>
       <c r="K9" t="n">
-        <v>64.5459552264858</v>
+        <v>64.54595522648559</v>
       </c>
       <c r="L9" t="n">
-        <v>39.99955665635889</v>
+        <v>39.99955665635861</v>
       </c>
       <c r="M9" t="n">
-        <v>27.12520386756974</v>
+        <v>27.1252038675694</v>
       </c>
       <c r="N9" t="n">
-        <v>13.28894051679795</v>
+        <v>13.2889405167976</v>
       </c>
       <c r="O9" t="n">
-        <v>34.60102194204401</v>
+        <v>34.60102194204369</v>
       </c>
       <c r="P9" t="n">
-        <v>47.29872032915483</v>
+        <v>47.29872032915458</v>
       </c>
       <c r="Q9" t="n">
-        <v>82.04137266824981</v>
+        <v>82.04137266824964</v>
       </c>
       <c r="R9" t="n">
         <v>117.4976622078487</v>
@@ -28029,37 +28029,37 @@
         <v>158.8438476226975</v>
       </c>
       <c r="I10" t="n">
-        <v>144.006672556372</v>
+        <v>144.0066725563719</v>
       </c>
       <c r="J10" t="n">
-        <v>100.0914156841413</v>
+        <v>100.0914156841412</v>
       </c>
       <c r="K10" t="n">
-        <v>84.80171213065412</v>
+        <v>84.80171213065398</v>
       </c>
       <c r="L10" t="n">
-        <v>78.30911885273919</v>
+        <v>78.30911885273903</v>
       </c>
       <c r="M10" t="n">
-        <v>79.27479111774022</v>
+        <v>79.27479111774004</v>
       </c>
       <c r="N10" t="n">
-        <v>69.4529189183379</v>
+        <v>69.45291891833773</v>
       </c>
       <c r="O10" t="n">
-        <v>84.66928353571805</v>
+        <v>84.66928353571788</v>
       </c>
       <c r="P10" t="n">
-        <v>91.70371543298327</v>
+        <v>91.70371543298315</v>
       </c>
       <c r="Q10" t="n">
         <v>119.6401698161949</v>
       </c>
       <c r="R10" t="n">
-        <v>160.1830387391998</v>
+        <v>160.1830387391997</v>
       </c>
       <c r="S10" t="n">
-        <v>217.3848661309901</v>
+        <v>217.38486613099</v>
       </c>
       <c r="T10" t="n">
         <v>226.3196562014627</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="C11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="D11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="E11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="F11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="G11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="H11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="I11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="T11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="U11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="V11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="W11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="X11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
     </row>
     <row r="12">
@@ -28166,49 +28166,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="C12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="D12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="E12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="F12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="G12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="H12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="I12" t="n">
-        <v>41.97088568096381</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="K12" t="n">
-        <v>41.97088568096381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="N12" t="n">
-        <v>41.97088568096381</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>8.362673908255942</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>14.03409201017067</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>31.66886087721419</v>
       </c>
       <c r="S12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="T12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="U12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="V12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="W12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="X12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="C13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="D13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="E13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="F13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="G13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="H13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="I13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="J13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="K13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="L13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="M13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="N13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="O13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="P13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="R13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="S13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="T13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="U13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="V13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="W13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="X13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096385</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="C14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="D14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="E14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="F14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="G14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="H14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="T14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="U14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="V14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="W14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="X14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="C16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="D16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="E16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="F16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="G16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="H16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="I16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="J16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="K16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="L16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="M16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="N16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="O16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="P16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="R16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="S16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="T16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="U16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="V16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="W16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="X16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096373</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="18">
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I18" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.41330088048454</v>
+        <v>86.41330088048227</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="21">
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28986,46 +28986,46 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>86.41330088048454</v>
+        <v>76.32843350415715</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-2.330580173293129e-12</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>76.32843350415705</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L25" t="n">
-        <v>86.41330088048457</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="C26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="D26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="E26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="F26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="G26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="H26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="I26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="J26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="K26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="L26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="M26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="N26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="O26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="P26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="R26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="S26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="T26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="U26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="V26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="W26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="X26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="C28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="D28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="E28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="F28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="G28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="H28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="I28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="J28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="K28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="L28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="M28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="N28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="O28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="P28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="R28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="S28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="T28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="U28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="V28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="W28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="X28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
       <c r="Y28" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714123</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="C29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="D29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="E29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="F29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="G29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="H29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="I29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="J29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="K29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="L29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="M29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="N29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="O29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="P29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="R29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="S29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="T29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="U29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="V29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="W29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="X29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="Y29" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="C31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="D31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="E31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="F31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="G31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="H31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="I31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="J31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="K31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="L31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="M31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="N31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="O31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="P31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="R31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="S31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="T31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="U31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="V31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="W31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="X31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.71383454714114</v>
+        <v>55.71383454714129</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="C32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="D32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="E32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="F32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="G32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="H32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="I32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="J32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="K32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="L32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="M32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="N32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="O32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="P32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="R32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="S32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="T32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="U32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="V32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="W32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="X32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="Y32" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="C34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="D34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="E34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="F34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="G34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="H34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="I34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="J34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="K34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="L34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="M34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="N34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="O34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="P34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="R34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="S34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="T34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="U34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="V34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="W34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="X34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.71383454714107</v>
+        <v>55.71383454714124</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>97.68472022810487</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.5769297729281</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30165,22 +30165,22 @@
         <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="K37" t="n">
-        <v>86.41330088048574</v>
+        <v>86.41330088048565</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>97.68472022810487</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>97.68472022810487</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>97.68472022810487</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="40">
@@ -30402,28 +30402,28 @@
         <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="L40" t="n">
         <v>97.68472022810487</v>
       </c>
       <c r="M40" t="n">
-        <v>86.41330088048571</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="N40" t="n">
         <v>97.68472022810487</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810487</v>
+        <v>86.41330088048574</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>88.93215267004733</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>86.41330088048574</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>76.32843350415965</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="N46" t="n">
-        <v>86.41330088048454</v>
+        <v>76.3284335041586</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8483432210922393</v>
+        <v>0.8483432210922417</v>
       </c>
       <c r="H8" t="n">
-        <v>8.688095013010898</v>
+        <v>8.688095013010923</v>
       </c>
       <c r="I8" t="n">
-        <v>32.70575203115858</v>
+        <v>32.70575203115868</v>
       </c>
       <c r="J8" t="n">
-        <v>72.0020704611775</v>
+        <v>72.00207046117772</v>
       </c>
       <c r="K8" t="n">
-        <v>107.912439010012</v>
+        <v>107.9124390100123</v>
       </c>
       <c r="L8" t="n">
-        <v>133.8749228625136</v>
+        <v>133.874922862514</v>
       </c>
       <c r="M8" t="n">
-        <v>148.9616466206128</v>
+        <v>148.9616466206132</v>
       </c>
       <c r="N8" t="n">
-        <v>151.3720017975411</v>
+        <v>151.3720017975415</v>
       </c>
       <c r="O8" t="n">
-        <v>142.9362888928051</v>
+        <v>142.9362888928055</v>
       </c>
       <c r="P8" t="n">
-        <v>121.9928156220905</v>
+        <v>121.9928156220908</v>
       </c>
       <c r="Q8" t="n">
-        <v>91.61152401672462</v>
+        <v>91.61152401672489</v>
       </c>
       <c r="R8" t="n">
-        <v>53.28973986193542</v>
+        <v>53.28973986193557</v>
       </c>
       <c r="S8" t="n">
-        <v>19.33162115063942</v>
+        <v>19.33162115063948</v>
       </c>
       <c r="T8" t="n">
-        <v>3.713622450331279</v>
+        <v>3.71362245033129</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06786745768737912</v>
+        <v>0.06786745768737933</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4539036394740225</v>
+        <v>0.4539036394740238</v>
       </c>
       <c r="H9" t="n">
-        <v>4.383753570709639</v>
+        <v>4.383753570709652</v>
       </c>
       <c r="I9" t="n">
-        <v>15.62782267487314</v>
+        <v>15.62782267487319</v>
       </c>
       <c r="J9" t="n">
-        <v>42.88393990311368</v>
+        <v>42.88393990311381</v>
       </c>
       <c r="K9" t="n">
-        <v>73.29548374787319</v>
+        <v>73.2954837478734</v>
       </c>
       <c r="L9" t="n">
-        <v>98.55482312351529</v>
+        <v>98.55482312351558</v>
       </c>
       <c r="M9" t="n">
-        <v>115.0088300544486</v>
+        <v>115.0088300544489</v>
       </c>
       <c r="N9" t="n">
-        <v>118.0527715665354</v>
+        <v>118.0527715665357</v>
       </c>
       <c r="O9" t="n">
-        <v>107.9952225024004</v>
+        <v>107.9952225024008</v>
       </c>
       <c r="P9" t="n">
-        <v>86.67568708517541</v>
+        <v>86.67568708517567</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.94040141777172</v>
+        <v>57.94040141777189</v>
       </c>
       <c r="R9" t="n">
-        <v>28.1818417561152</v>
+        <v>28.18184175611528</v>
       </c>
       <c r="S9" t="n">
-        <v>8.431061022686333</v>
+        <v>8.431061022686357</v>
       </c>
       <c r="T9" t="n">
-        <v>1.829550195950116</v>
+        <v>1.829550195950122</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0298620815443436</v>
+        <v>0.02986208154434369</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3805375637235477</v>
+        <v>0.3805375637235489</v>
       </c>
       <c r="H10" t="n">
-        <v>3.38332488474209</v>
+        <v>3.3833248847421</v>
       </c>
       <c r="I10" t="n">
-        <v>11.44380237088633</v>
+        <v>11.44380237088636</v>
       </c>
       <c r="J10" t="n">
-        <v>26.90400575525482</v>
+        <v>26.9040057552549</v>
       </c>
       <c r="K10" t="n">
-        <v>44.21154603988126</v>
+        <v>44.21154603988139</v>
       </c>
       <c r="L10" t="n">
-        <v>56.5755574284991</v>
+        <v>56.57555742849926</v>
       </c>
       <c r="M10" t="n">
-        <v>59.65099282986484</v>
+        <v>59.65099282986502</v>
       </c>
       <c r="N10" t="n">
-        <v>58.2326255468953</v>
+        <v>58.23262554689547</v>
       </c>
       <c r="O10" t="n">
-        <v>53.78725491612474</v>
+        <v>53.78725491612491</v>
       </c>
       <c r="P10" t="n">
-        <v>46.02428861616433</v>
+        <v>46.02428861616447</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.86483181325089</v>
+        <v>31.86483181325099</v>
       </c>
       <c r="R10" t="n">
-        <v>17.1103526379697</v>
+        <v>17.11035263796975</v>
       </c>
       <c r="S10" t="n">
-        <v>6.631731905982188</v>
+        <v>6.631731905982208</v>
       </c>
       <c r="T10" t="n">
-        <v>1.625933226818794</v>
+        <v>1.625933226818799</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02075659438492081</v>
+        <v>0.02075659438492087</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34141,7 +34141,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095029</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.67141810191503</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.62176302190352</v>
+        <v>88.62176302190355</v>
       </c>
       <c r="K12" t="n">
-        <v>200.6489328979629</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L12" t="n">
         <v>302.1235478627699</v>
       </c>
       <c r="M12" t="n">
-        <v>323.13827825102</v>
+        <v>365.1091639319839</v>
       </c>
       <c r="N12" t="n">
-        <v>388.2158594129154</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O12" t="n">
-        <v>302.6649428522625</v>
+        <v>336.2731546249704</v>
       </c>
       <c r="P12" t="n">
-        <v>216.6751672332334</v>
+        <v>230.709259243404</v>
       </c>
       <c r="Q12" t="n">
         <v>94.41818044892935</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.45281766444803</v>
+        <v>57.45281766444807</v>
       </c>
       <c r="K13" t="n">
         <v>198.5607757041238</v>
       </c>
       <c r="L13" t="n">
-        <v>298.4393405781538</v>
+        <v>298.4393405781539</v>
       </c>
       <c r="M13" t="n">
-        <v>322.8749755710552</v>
+        <v>322.8749755710553</v>
       </c>
       <c r="N13" t="n">
         <v>321.6852157022066</v>
@@ -35586,7 +35586,7 @@
         <v>225.4423413558468</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.71915277445987</v>
+        <v>84.71915277445993</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.54930229403004</v>
+        <v>87.54930229402993</v>
       </c>
       <c r="K16" t="n">
-        <v>248.0185452252834</v>
+        <v>248.0185452252832</v>
       </c>
       <c r="L16" t="n">
-        <v>361.728257851162</v>
+        <v>361.7282578511618</v>
       </c>
       <c r="M16" t="n">
-        <v>389.6042650744477</v>
+        <v>389.6042650744475</v>
       </c>
       <c r="N16" t="n">
-        <v>386.8278318485039</v>
+        <v>386.8278318485038</v>
       </c>
       <c r="O16" t="n">
-        <v>344.3240159036036</v>
+        <v>344.3240159036034</v>
       </c>
       <c r="P16" t="n">
-        <v>276.9279568260743</v>
+        <v>276.9279568260741</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.3651242188575</v>
+        <v>120.3651242188573</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L19" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M19" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q19" t="n">
-        <v>99.46458104062674</v>
+        <v>99.46458104062444</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36273,7 +36273,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.332299818266982</v>
       </c>
       <c r="J22" t="n">
         <v>11.94217529034289</v>
@@ -36282,25 +36282,25 @@
         <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>243.6959715091282</v>
+        <v>233.6111041328008</v>
       </c>
       <c r="M22" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N22" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511834</v>
       </c>
       <c r="O22" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848624</v>
       </c>
       <c r="P22" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882473</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>8.752567558057748</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687102</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36510,34 +36510,34 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.332299818266982</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>88.27060879449994</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L25" t="n">
-        <v>243.6959715091283</v>
+        <v>254.9673908567488</v>
       </c>
       <c r="M25" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848624</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882473</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>8.752567558057748</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>14.1369047742152</v>
+        <v>14.13690477421528</v>
       </c>
       <c r="J26" t="n">
-        <v>330.4623251673267</v>
+        <v>330.4623251673231</v>
       </c>
       <c r="K26" t="n">
         <v>392.9051211025417</v>
       </c>
       <c r="L26" t="n">
-        <v>511.3039489394733</v>
+        <v>511.3039489394734</v>
       </c>
       <c r="M26" t="n">
-        <v>594.6349503773679</v>
+        <v>594.634950377368</v>
       </c>
       <c r="N26" t="n">
-        <v>608.0156699600526</v>
+        <v>608.0156699600527</v>
       </c>
       <c r="O26" t="n">
-        <v>563.7668354353602</v>
+        <v>563.7668354353603</v>
       </c>
       <c r="P26" t="n">
-        <v>454.475820766513</v>
+        <v>454.4758207665131</v>
       </c>
       <c r="Q26" t="n">
-        <v>306.5081393508606</v>
+        <v>306.5081393508607</v>
       </c>
       <c r="R26" t="n">
-        <v>115.3270330893659</v>
+        <v>115.327033089366</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.65600983748402</v>
+        <v>67.65600983748411</v>
       </c>
       <c r="K28" t="n">
-        <v>261.3397505987638</v>
+        <v>155.0177277468083</v>
       </c>
       <c r="L28" t="n">
         <v>375.4712067173393</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8375530311793</v>
+        <v>403.3472139406251</v>
       </c>
       <c r="N28" t="n">
-        <v>400.5707807146812</v>
+        <v>400.5707807146813</v>
       </c>
       <c r="O28" t="n">
         <v>358.066964769781</v>
       </c>
       <c r="P28" t="n">
-        <v>290.6709056922516</v>
+        <v>283.8262260125103</v>
       </c>
       <c r="Q28" t="n">
-        <v>134.1080730850348</v>
+        <v>68.76511470728343</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>14.1369047742152</v>
+        <v>14.13690477421534</v>
       </c>
       <c r="J29" t="n">
-        <v>246.5008355158537</v>
+        <v>264.74590529434</v>
       </c>
       <c r="K29" t="n">
-        <v>476.8666107540146</v>
+        <v>392.9051211025418</v>
       </c>
       <c r="L29" t="n">
-        <v>511.3039489394733</v>
+        <v>511.3039489394735</v>
       </c>
       <c r="M29" t="n">
-        <v>594.6349503773679</v>
+        <v>594.634950377368</v>
       </c>
       <c r="N29" t="n">
-        <v>608.0156699600526</v>
+        <v>608.0156699600527</v>
       </c>
       <c r="O29" t="n">
-        <v>563.7668354353602</v>
+        <v>563.7668354353605</v>
       </c>
       <c r="P29" t="n">
-        <v>454.475820766513</v>
+        <v>454.4758207665132</v>
       </c>
       <c r="Q29" t="n">
-        <v>306.5081393508606</v>
+        <v>306.5081393508608</v>
       </c>
       <c r="R29" t="n">
-        <v>115.3270330893659</v>
+        <v>181.0434529623485</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.65600983748402</v>
+        <v>67.65600983748418</v>
       </c>
       <c r="K31" t="n">
-        <v>155.0177277468082</v>
+        <v>261.7614940914609</v>
       </c>
       <c r="L31" t="n">
-        <v>375.4712067173393</v>
+        <v>375.049463224639</v>
       </c>
       <c r="M31" t="n">
-        <v>403.347213940625</v>
+        <v>224.8375530311795</v>
       </c>
       <c r="N31" t="n">
-        <v>400.5707807146812</v>
+        <v>400.5707807146814</v>
       </c>
       <c r="O31" t="n">
-        <v>358.066964769781</v>
+        <v>358.0669647697811</v>
       </c>
       <c r="P31" t="n">
-        <v>283.8262260125126</v>
+        <v>290.6709056922517</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.76511470728335</v>
+        <v>134.108073085035</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>14.13690477421511</v>
+        <v>14.13690477421528</v>
       </c>
       <c r="J32" t="n">
-        <v>246.5008355158536</v>
+        <v>246.5008355158538</v>
       </c>
       <c r="K32" t="n">
-        <v>476.8666107540157</v>
+        <v>392.9051211025417</v>
       </c>
       <c r="L32" t="n">
-        <v>511.3039489394732</v>
+        <v>595.2654385909427</v>
       </c>
       <c r="M32" t="n">
-        <v>594.6349503773678</v>
+        <v>594.634950377368</v>
       </c>
       <c r="N32" t="n">
-        <v>608.0156699600525</v>
+        <v>608.0156699600527</v>
       </c>
       <c r="O32" t="n">
-        <v>563.7668354353602</v>
+        <v>563.7668354353603</v>
       </c>
       <c r="P32" t="n">
-        <v>454.4758207665129</v>
+        <v>454.4758207665131</v>
       </c>
       <c r="Q32" t="n">
-        <v>306.5081393508606</v>
+        <v>306.5081393508607</v>
       </c>
       <c r="R32" t="n">
-        <v>115.3270330893658</v>
+        <v>115.327033089366</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>67.65600983748396</v>
+        <v>67.65600983748413</v>
       </c>
       <c r="K34" t="n">
-        <v>155.0177277468081</v>
+        <v>155.0177277468083</v>
       </c>
       <c r="L34" t="n">
-        <v>375.4712067173392</v>
+        <v>368.626527037598</v>
       </c>
       <c r="M34" t="n">
-        <v>403.3472139406249</v>
+        <v>403.3472139406251</v>
       </c>
       <c r="N34" t="n">
-        <v>400.5707807146812</v>
+        <v>400.5707807146813</v>
       </c>
       <c r="O34" t="n">
-        <v>358.0669647697808</v>
+        <v>358.066964769781</v>
       </c>
       <c r="P34" t="n">
-        <v>283.8262260125147</v>
+        <v>290.6709056922517</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.76511470728326</v>
+        <v>68.76511470728343</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.153159805333637e-12</v>
       </c>
       <c r="J35" t="n">
         <v>190.7870009687126</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>185.7171940801528</v>
+        <v>185.7171940801527</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848622</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
         <v>197.6352280591742</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L40" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>255.5370193645239</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848622</v>
+        <v>225.724764737243</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J43" t="n">
         <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>185.7171940801528</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>233.6111041328033</v>
       </c>
       <c r="M43" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266939</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567488</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N46" t="n">
-        <v>259.4525302035628</v>
+        <v>249.3676628272369</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
         <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057706</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
